--- a/02_MasterWifoMannheim/99_Backup/Course121.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course121.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F592811596918B44E13F89E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1DFA23-AC97-4AC8-B6A2-960D30B5162D}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MAN 663 Digital Social Innovation Lab with SocEnt BW and SAP (Kein Angebot im HWS 2020!)</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In cooperation with SocEnt BW and of digitalization, sustainability, and social entrepreneurship. work in teams (of approx. 4 students) on ideas for digital social businesses and develop them in the course of one semester until they could be implemented. The students gain a deeper understanding of the potential of digital technology to remedy social and environmental problems. Members of SocEnt BW and SAP support the students as mentors and coaches. At the end of the seminar, the students pitch their ideas at the final event in front of a jury of practitioners. The best idea will receive an award.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Within the seminar, students take on the role of a social entrepreneur. The students learn how digital technologies can contribute to the solution of ecological and social problems and thus promote social innovation. Furthermore, students will be enabled to integrate concepts of digitalization and social innovation into new business models and to discuss them from a scientific and practical perspective.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on registration:Website of the Chair (not via portal2!)</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Seminar 2 SWS 10 SWS</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>70% Final presentation; 30% Crowd-funding video</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Laura Marie Edinger-Schons</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester Kein Angebot im HWS 2020!</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAN 663 Digital Social Innovation Lab with SocEnt BW and SAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In cooperation with SocEnt BW and of digitalization, sustainability, and social entrepreneurship. work in teams (of approx. 4 students) on ideas for digital social businesses and develop them in the course of one semester until they could be implemented. The students gain a deeper understanding of the potential of digital technology to remedy social and environmental problems. Members of SocEnt BW and SAP support the students as mentors and coaches. At the end of the seminar, the students pitch their ideas at the final event in front of a jury of practitioners. The best idea will receive an award.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Within the seminar, students take on the role of a social entrepreneur. The students learn how digital technologies can contribute to the solution of ecological and social problems and thus promote social innovation. Furthermore, students will be enabled to integrate concepts of digitalization and social innovation into new business models and to discuss them from a scientific and practical perspective.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Further Information on registration:Website of the Chair (not via portal2!)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Seminar 2 SWS 10 SWS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>70% Final presentation; 30% Crowd-funding video</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Laura Marie Edinger-Schons</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.A. K&amp;W, M.Sc. Econ., LL.M.</t>
+        </is>
       </c>
     </row>
   </sheetData>
